--- a/A1 vocab.xlsx
+++ b/A1 vocab.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="tasre7_eqama">Sheet2!$C:$C</definedName>
     <definedName name="tips">Sheet1!$C$112</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="575">
   <si>
     <t>der</t>
   </si>
@@ -1122,19 +1124,655 @@
   </si>
   <si>
     <t>Zucker</t>
+  </si>
+  <si>
+    <t>very well</t>
+  </si>
+  <si>
+    <t>see you soon</t>
+  </si>
+  <si>
+    <t>have a nice trip</t>
+  </si>
+  <si>
+    <t>بتتنطق ازاي</t>
+  </si>
+  <si>
+    <t>see you tomorrow</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>du bist eingeladen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to pay </t>
+  </si>
+  <si>
+    <t>to order</t>
+  </si>
+  <si>
+    <t>Antwort</t>
+  </si>
+  <si>
+    <t>begrüßen</t>
+  </si>
+  <si>
+    <t>Begrüßung</t>
+  </si>
+  <si>
+    <t>besichtigen</t>
+  </si>
+  <si>
+    <t>Dom</t>
+  </si>
+  <si>
+    <t>Dome</t>
+  </si>
+  <si>
+    <t>Dort</t>
+  </si>
+  <si>
+    <t>Eltern</t>
+  </si>
+  <si>
+    <t>Fahren</t>
+  </si>
+  <si>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>Gestern</t>
+  </si>
+  <si>
+    <t>in Moment</t>
+  </si>
+  <si>
+    <t>Letztes Jahr</t>
+  </si>
+  <si>
+    <t>nach</t>
+  </si>
+  <si>
+    <t>noch nie</t>
+  </si>
+  <si>
+    <t>Oper</t>
+  </si>
+  <si>
+    <t>Opern</t>
+  </si>
+  <si>
+    <t>Österreich</t>
+  </si>
+  <si>
+    <t>Schlöss</t>
+  </si>
+  <si>
+    <t>Schlösser</t>
+  </si>
+  <si>
+    <t>schon mal</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Sehenswürdigkeit</t>
+  </si>
+  <si>
+    <t>Sehenswürdigkeiten</t>
+  </si>
+  <si>
+    <t>Spiel</t>
+  </si>
+  <si>
+    <t>Spiele</t>
+  </si>
+  <si>
+    <t>Spielen</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Städte</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>Tor</t>
+  </si>
+  <si>
+    <t>Tors</t>
+  </si>
+  <si>
+    <t>verabschiedung</t>
+  </si>
+  <si>
+    <t>was ist das</t>
+  </si>
+  <si>
+    <t>Wohin</t>
+  </si>
+  <si>
+    <t>gewinnen</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Hauptstadt</t>
+  </si>
+  <si>
+    <t>hauptstädte</t>
+  </si>
+  <si>
+    <t>in der mitte</t>
+  </si>
+  <si>
+    <t>in der Nähe</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>Norden</t>
+  </si>
+  <si>
+    <t>Osten</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>Seen</t>
+  </si>
+  <si>
+    <t>Süden</t>
+  </si>
+  <si>
+    <t>Syrien</t>
+  </si>
+  <si>
+    <t>Tanzen</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Westen</t>
+  </si>
+  <si>
+    <t>Bei uns</t>
+  </si>
+  <si>
+    <t>amoung us</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Franckreich</t>
+  </si>
+  <si>
+    <t>Hamburger</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Lieblingsessen</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>nächstes Jahr</t>
+  </si>
+  <si>
+    <t>Singen</t>
+  </si>
+  <si>
+    <t>Spezialität</t>
+  </si>
+  <si>
+    <t>Spezialtäten</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Verschieden</t>
+  </si>
+  <si>
+    <t>Arabisch</t>
+  </si>
+  <si>
+    <t>Aufenthaltserlaubnisse</t>
+  </si>
+  <si>
+    <t>Aufenthaltserlaubnissen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>Chinesisch</t>
+  </si>
+  <si>
+    <t>ein bisschen</t>
+  </si>
+  <si>
+    <t>Englisch</t>
+  </si>
+  <si>
+    <t>Flüchtling</t>
+  </si>
+  <si>
+    <t>Flüchtlinge</t>
+  </si>
+  <si>
+    <t>Französisch</t>
+  </si>
+  <si>
+    <t>Fremdsprache</t>
+  </si>
+  <si>
+    <t>Fremdspachen</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>Italienisch</t>
+  </si>
+  <si>
+    <t>Japanisch</t>
+  </si>
+  <si>
+    <t>Muttersprache</t>
+  </si>
+  <si>
+    <t>Muttersprachen</t>
+  </si>
+  <si>
+    <t>nördlich</t>
+  </si>
+  <si>
+    <t>östlich</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>schlecht</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>schnell</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>sehr</t>
+  </si>
+  <si>
+    <t>südlich</t>
+  </si>
+  <si>
+    <t>westlich</t>
+  </si>
+  <si>
+    <t>Bleistift</t>
+  </si>
+  <si>
+    <t>Bliestifte</t>
+  </si>
+  <si>
+    <t>Brille</t>
+  </si>
+  <si>
+    <t>Brillen</t>
+  </si>
+  <si>
+    <t>Buch</t>
+  </si>
+  <si>
+    <t>Bücher</t>
+  </si>
+  <si>
+    <t>Deutschkurs</t>
+  </si>
+  <si>
+    <t>Deutschkurse</t>
+  </si>
+  <si>
+    <t>Lehrer</t>
+  </si>
+  <si>
+    <t>Lehrerin</t>
+  </si>
+  <si>
+    <t>Lehrerinen</t>
+  </si>
+  <si>
+    <t>Notizblock</t>
+  </si>
+  <si>
+    <t>Notizblöcke</t>
+  </si>
+  <si>
+    <t>Papier</t>
+  </si>
+  <si>
+    <t>Radiergummi</t>
+  </si>
+  <si>
+    <t>Radiergummis</t>
+  </si>
+  <si>
+    <t>Schlüssel</t>
+  </si>
+  <si>
+    <t>Sprachschule</t>
+  </si>
+  <si>
+    <t>Sprachschulen</t>
+  </si>
+  <si>
+    <t>Stift</t>
+  </si>
+  <si>
+    <t>Stifte</t>
+  </si>
+  <si>
+    <t>unterrichten</t>
+  </si>
+  <si>
+    <t>wie heißt das auf Deutsch</t>
+  </si>
+  <si>
+    <t>Bestellung</t>
+  </si>
+  <si>
+    <t>Bestellungen</t>
+  </si>
+  <si>
+    <t>Deutschunterriecht</t>
+  </si>
+  <si>
+    <t>Falsch</t>
+  </si>
+  <si>
+    <t>Hausaufgabe</t>
+  </si>
+  <si>
+    <t>Hausaufgaben</t>
+  </si>
+  <si>
+    <t>Jahr</t>
+  </si>
+  <si>
+    <t>Jahre</t>
+  </si>
+  <si>
+    <t>Kurstielnehmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kursteilnhemer - en </t>
+  </si>
+  <si>
+    <t>Kurstielnehmerin</t>
+  </si>
+  <si>
+    <t>Lesen</t>
+  </si>
+  <si>
+    <t>Nachmittag</t>
+  </si>
+  <si>
+    <t>Nachmittage</t>
+  </si>
+  <si>
+    <t>Nachricht</t>
+  </si>
+  <si>
+    <t>Nachtichten</t>
+  </si>
+  <si>
+    <t>Ordner</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Pausen</t>
+  </si>
+  <si>
+    <t>Satz</t>
+  </si>
+  <si>
+    <t>Sätze</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>Tafel</t>
+  </si>
+  <si>
+    <t>Tafeln</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>üben</t>
+  </si>
+  <si>
+    <t>Von</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>wiederholen</t>
+  </si>
+  <si>
+    <t>Wort</t>
+  </si>
+  <si>
+    <t>Wörter</t>
+  </si>
+  <si>
+    <t>Wortbuch</t>
+  </si>
+  <si>
+    <t>wortbücher</t>
+  </si>
+  <si>
+    <t>zum beispiel</t>
+  </si>
+  <si>
+    <t>Alls Klar</t>
+  </si>
+  <si>
+    <t>all right</t>
+  </si>
+  <si>
+    <t>anzeige</t>
+  </si>
+  <si>
+    <t>anzeigen</t>
+  </si>
+  <si>
+    <t>Aufzug</t>
+  </si>
+  <si>
+    <t>Aufzugen</t>
+  </si>
+  <si>
+    <t>Brillenetui</t>
+  </si>
+  <si>
+    <t>Brillenetuis</t>
+  </si>
+  <si>
+    <t>Einen Moment bitte</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>Garagen</t>
+  </si>
+  <si>
+    <t>Haus</t>
+  </si>
+  <si>
+    <t>Häuser</t>
+  </si>
+  <si>
+    <t>heute</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Mieter</t>
+  </si>
+  <si>
+    <t>Mieterin</t>
+  </si>
+  <si>
+    <t>Mieter - en</t>
+  </si>
+  <si>
+    <t>Terrasse</t>
+  </si>
+  <si>
+    <t>Terrassen</t>
+  </si>
+  <si>
+    <t>WG</t>
+  </si>
+  <si>
+    <t>WGs</t>
+  </si>
+  <si>
+    <t>Wohngemeinschaft</t>
+  </si>
+  <si>
+    <t>Wohngemeinschaften</t>
+  </si>
+  <si>
+    <t>Wohnung</t>
+  </si>
+  <si>
+    <t>Wohnungen</t>
+  </si>
+  <si>
+    <t>Zettel</t>
+  </si>
+  <si>
+    <t>Zimmer</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>anderer, andere, anderes</t>
+  </si>
+  <si>
+    <t>other - others</t>
+  </si>
+  <si>
+    <t>billig</t>
+  </si>
+  <si>
+    <t>teuer</t>
+  </si>
+  <si>
+    <t>da sein</t>
+  </si>
+  <si>
+    <t>Fahrrad</t>
+  </si>
+  <si>
+    <t>Fahrräder</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>gelb</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Groß</t>
+  </si>
+  <si>
+    <t>klein</t>
+  </si>
+  <si>
+    <t>neu</t>
+  </si>
+  <si>
+    <t>weiß</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>T-shrits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="28"/>
@@ -1154,13 +1792,31 @@
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1174,8 +1830,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA2626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1183,28 +1863,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDA2626"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1479,62 +2239,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="69" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="15.7109375" style="3"/>
+    <col min="2" max="2" width="38.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="69" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1542,32 +2302,32 @@
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1575,10 +2335,10 @@
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1586,32 +2346,32 @@
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1619,51 +2379,51 @@
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1671,59 +2431,59 @@
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1731,62 +2491,62 @@
       <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1794,7 +2554,7 @@
       <c r="A28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1802,21 +2562,21 @@
       <c r="A29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1824,101 +2584,101 @@
       <c r="A31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="13" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1926,35 +2686,35 @@
       <c r="A40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1962,58 +2722,61 @@
       <c r="A43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:5" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="E50" s="16"/>
+    </row>
     <row r="51" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="13" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2021,29 +2784,29 @@
       <c r="A52" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="13" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2051,10 +2814,10 @@
       <c r="A55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="13" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2062,21 +2825,21 @@
       <c r="A56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2084,21 +2847,21 @@
       <c r="A58" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="13" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2106,42 +2869,42 @@
       <c r="A60" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2149,10 +2912,10 @@
       <c r="A65" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2160,21 +2923,21 @@
       <c r="A66" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="13" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2182,62 +2945,62 @@
       <c r="A68" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="13" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2245,43 +3008,43 @@
       <c r="A74" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2289,10 +3052,10 @@
       <c r="A78" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="13" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2300,10 +3063,10 @@
       <c r="A79" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="13" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2311,21 +3074,24 @@
       <c r="A80" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:5" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="14"/>
+      <c r="E81" s="16"/>
+    </row>
     <row r="82" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="13" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="13" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2333,76 +3099,76 @@
       <c r="A84" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="13" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="13" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="13" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2410,21 +3176,21 @@
       <c r="A91" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="13" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="13" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2432,10 +3198,10 @@
       <c r="A93" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="13" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2443,118 +3209,121 @@
       <c r="A94" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="13" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="13" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:6" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="17"/>
+      <c r="E99" s="16"/>
+    </row>
     <row r="100" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="13" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="13" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="13" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="13" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2562,27 +3331,27 @@
       <c r="A106" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="4" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2590,13 +3359,13 @@
       <c r="A108" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="4" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2604,10 +3373,10 @@
       <c r="A109" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="13" t="s">
         <v>286</v>
       </c>
     </row>
@@ -2615,38 +3384,38 @@
       <c r="A110" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="13" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2654,10 +3423,10 @@
       <c r="A113" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="4" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2665,7 +3434,7 @@
       <c r="A114" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="13" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2673,7 +3442,7 @@
       <c r="A115" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="13" t="s">
         <v>307</v>
       </c>
     </row>
@@ -2681,10 +3450,10 @@
       <c r="A116" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="13" t="s">
         <v>308</v>
       </c>
     </row>
@@ -2692,29 +3461,29 @@
       <c r="A117" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="13" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="13" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="13" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2722,27 +3491,27 @@
       <c r="A120" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="4" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="4" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2750,13 +3519,13 @@
       <c r="A122" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="4" t="s">
         <v>342</v>
       </c>
     </row>
@@ -2764,43 +3533,43 @@
       <c r="A123" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="13" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="13" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="13" t="s">
         <v>354</v>
       </c>
     </row>
@@ -2808,13 +3577,13 @@
       <c r="A127" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="4" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2822,75 +3591,2321 @@
       <c r="A128" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C129" s="3" t="s">
+    <row r="129" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C129" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C130" s="3" t="s">
+    <row r="130" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C130" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="11" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C131" s="3" t="s">
+    <row r="131" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C131" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="11" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="11" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="3" t="s">
+    <row r="135" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C136" s="3" t="s">
+    <row r="136" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="11" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>364</v>
       </c>
+    </row>
+    <row r="138" spans="1:5" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="17"/>
+      <c r="E138" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F216"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="69" style="13" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="15.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="14"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E83" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C95" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C96" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C97" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="17"/>
+      <c r="E99" s="16"/>
+    </row>
+    <row r="100" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E100" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C103" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C111" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C118" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C121" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C125" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C129" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C130" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C131" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="17"/>
+      <c r="E138" s="16"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D139" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C140" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C141" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B143" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C144" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B145" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B146" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C147" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C148" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B149" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C150" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B151" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C152" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B153" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C154" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B162" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C163" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D164" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B165" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C166" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B167" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B168" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B170" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C171" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B172" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B173" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C174" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B175" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="20"/>
+      <c r="E176" s="16"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C178" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B179" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C182" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B184" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C187" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C189" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C191" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B192" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C195" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C197" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C199" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B200" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B201" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C202" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B204" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C205" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B206" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B207" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C209" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C210" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C211" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C212" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B214" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B215" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B216" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/A1 vocab.xlsx
+++ b/A1 vocab.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="634">
   <si>
     <t>der</t>
   </si>
@@ -1754,13 +1754,190 @@
   </si>
   <si>
     <t>T-shrits</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>dunkel</t>
+  </si>
+  <si>
+    <t>es gibt</t>
+  </si>
+  <si>
+    <t>Freut mich</t>
+  </si>
+  <si>
+    <t>gemütlich</t>
+  </si>
+  <si>
+    <t>hoch</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>kurz</t>
+  </si>
+  <si>
+    <t>laut</t>
+  </si>
+  <si>
+    <t>ruhig</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>ungemütlich</t>
+  </si>
+  <si>
+    <t>auf dem landb</t>
+  </si>
+  <si>
+    <t>besser</t>
+  </si>
+  <si>
+    <t>frei</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>in der stadt</t>
+  </si>
+  <si>
+    <t>können</t>
+  </si>
+  <si>
+    <t>leben</t>
+  </si>
+  <si>
+    <t>meist</t>
+  </si>
+  <si>
+    <t>most of time</t>
+  </si>
+  <si>
+    <t>nett</t>
+  </si>
+  <si>
+    <t>oft</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>um-zehn</t>
+  </si>
+  <si>
+    <t>verstehen</t>
+  </si>
+  <si>
+    <t>vielleich</t>
+  </si>
+  <si>
+    <t>Arbeitszimmer</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Bäder</t>
+  </si>
+  <si>
+    <t>Badezimmer</t>
+  </si>
+  <si>
+    <t>badezimmer</t>
+  </si>
+  <si>
+    <t>Fenster</t>
+  </si>
+  <si>
+    <t>Flur</t>
+  </si>
+  <si>
+    <t>Flure</t>
+  </si>
+  <si>
+    <t>Interessent</t>
+  </si>
+  <si>
+    <t>interessenten</t>
+  </si>
+  <si>
+    <t>Keller</t>
+  </si>
+  <si>
+    <t>Küche</t>
+  </si>
+  <si>
+    <t>kücher</t>
+  </si>
+  <si>
+    <t>Monat</t>
+  </si>
+  <si>
+    <t>Monaten</t>
+  </si>
+  <si>
+    <t>pommes friets</t>
+  </si>
+  <si>
+    <t>Quadratmeter</t>
+  </si>
+  <si>
+    <t>Schlafzimmer</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>Wohnzimmer</t>
+  </si>
+  <si>
+    <t>Balkon</t>
+  </si>
+  <si>
+    <t>Balkons</t>
+  </si>
+  <si>
+    <t>Bekannte</t>
+  </si>
+  <si>
+    <t>Bekannten</t>
+  </si>
+  <si>
+    <t>Garten</t>
+  </si>
+  <si>
+    <t>Gärten</t>
+  </si>
+  <si>
+    <t>Heizung</t>
+  </si>
+  <si>
+    <t>Heizungen</t>
+  </si>
+  <si>
+    <t>Hochhaus</t>
+  </si>
+  <si>
+    <t>Hochhäuser</t>
+  </si>
+  <si>
+    <t>Jugendherbergen</t>
+  </si>
+  <si>
+    <t>Jugendherberge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1795,6 +1972,11 @@
     <font>
       <sz val="22"/>
       <color theme="0"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
@@ -1919,7 +2101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1954,6 +2136,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3670,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -5841,7 +6024,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C209" s="7" t="s">
         <v>547</v>
       </c>
@@ -5849,7 +6032,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C210" s="7" t="s">
         <v>549</v>
       </c>
@@ -5857,7 +6040,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C211" s="7" t="s">
         <v>551</v>
       </c>
@@ -5865,7 +6048,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C212" s="7" t="s">
         <v>553</v>
       </c>
@@ -5873,7 +6056,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>555</v>
       </c>
@@ -5881,7 +6064,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B214" s="9" t="s">
         <v>556</v>
       </c>
@@ -5889,7 +6072,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B215" s="9" t="s">
         <v>563</v>
       </c>
@@ -5897,12 +6080,262 @@
         <v>564</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B216" s="9" t="s">
         <v>573</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>574</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="20"/>
+      <c r="E217" s="16"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B218" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B219" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B220" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E220" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B221" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C225" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D227" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D228" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B229" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B230" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C234" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B235" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C236" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E237" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E238" s="13" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E239" s="13" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E240" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E241" s="13" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E242" s="13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E243" s="13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E244" s="13" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/A1 vocab.xlsx
+++ b/A1 vocab.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="728">
   <si>
     <t>der</t>
   </si>
@@ -1931,13 +1931,311 @@
   </si>
   <si>
     <t>Jugendherberge</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>Kinder</t>
+  </si>
+  <si>
+    <t>Miete</t>
+  </si>
+  <si>
+    <t>Mieten</t>
+  </si>
+  <si>
+    <t>Mitbewohner</t>
+  </si>
+  <si>
+    <t>Mitbewohnerin</t>
+  </si>
+  <si>
+    <t>Mitbewohner - en</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Umzung</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>Urlaube</t>
+  </si>
+  <si>
+    <t>bequem</t>
+  </si>
+  <si>
+    <t>arbeiten</t>
+  </si>
+  <si>
+    <t>finden</t>
+  </si>
+  <si>
+    <t>Spießig</t>
+  </si>
+  <si>
+    <t>stehen</t>
+  </si>
+  <si>
+    <t>unbequvem</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>bald</t>
+  </si>
+  <si>
+    <t>daneben</t>
+  </si>
+  <si>
+    <t>next to it</t>
+  </si>
+  <si>
+    <t>doch</t>
+  </si>
+  <si>
+    <t>drickig</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>immer</t>
+  </si>
+  <si>
+    <t>komm rein</t>
+  </si>
+  <si>
+    <t>kommt drauf an</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial Rounded MT Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t>That depends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>möchtest du etwas trinken</t>
+  </si>
+  <si>
+    <t>putzen</t>
+  </si>
+  <si>
+    <t>sauber</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>Bett</t>
+  </si>
+  <si>
+    <t>Betten</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>bilder</t>
+  </si>
+  <si>
+    <t>Bücherregal</t>
+  </si>
+  <si>
+    <t>Bücherregale</t>
+  </si>
+  <si>
+    <t>Bürostuhl</t>
+  </si>
+  <si>
+    <t>Bürostöhle</t>
+  </si>
+  <si>
+    <t>Couch</t>
+  </si>
+  <si>
+    <t>Couches</t>
+  </si>
+  <si>
+    <t>Fernsehen</t>
+  </si>
+  <si>
+    <t>Fernseher</t>
+  </si>
+  <si>
+    <t>Gardine</t>
+  </si>
+  <si>
+    <t>Gardinen</t>
+  </si>
+  <si>
+    <t>Herd</t>
+  </si>
+  <si>
+    <t>Herde</t>
+  </si>
+  <si>
+    <t>Kissen</t>
+  </si>
+  <si>
+    <t>Kleiderschrank</t>
+  </si>
+  <si>
+    <t>Kleiderschränke</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>Möbel</t>
+  </si>
+  <si>
+    <t>Nachttisch</t>
+  </si>
+  <si>
+    <t>Nachttische</t>
+  </si>
+  <si>
+    <t>Regal</t>
+  </si>
+  <si>
+    <t>Regale</t>
+  </si>
+  <si>
+    <t>Schrank</t>
+  </si>
+  <si>
+    <t>schränke</t>
+  </si>
+  <si>
+    <t>Schreibttisch</t>
+  </si>
+  <si>
+    <t>schreibttische</t>
+  </si>
+  <si>
+    <t>Schreibtstuhl</t>
+  </si>
+  <si>
+    <t>Schreibtstühle</t>
+  </si>
+  <si>
+    <t>Sessel</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Sofas</t>
+  </si>
+  <si>
+    <t>Spiegel</t>
+  </si>
+  <si>
+    <t>Spüle</t>
+  </si>
+  <si>
+    <t>Spülen</t>
+  </si>
+  <si>
+    <t>Stehlamp</t>
+  </si>
+  <si>
+    <t>Stehlampen</t>
+  </si>
+  <si>
+    <t>Stuhl</t>
+  </si>
+  <si>
+    <t>Stühlen</t>
+  </si>
+  <si>
+    <t>Teppich</t>
+  </si>
+  <si>
+    <t>Teppiche</t>
+  </si>
+  <si>
+    <t>Tisch</t>
+  </si>
+  <si>
+    <t>Tische</t>
+  </si>
+  <si>
+    <t>Waschmaschinen</t>
+  </si>
+  <si>
+    <t>Waschmaschine</t>
+  </si>
+  <si>
+    <t>Armbanduhr</t>
+  </si>
+  <si>
+    <t>Armbanduhren</t>
+  </si>
+  <si>
+    <t>Föhn</t>
+  </si>
+  <si>
+    <t>Föhne</t>
+  </si>
+  <si>
+    <t>Handtuch</t>
+  </si>
+  <si>
+    <t>Handtücher</t>
+  </si>
+  <si>
+    <t>Kinderzimmer</t>
+  </si>
+  <si>
+    <t>Nachbarin</t>
+  </si>
+  <si>
+    <t>Nachbarinen</t>
+  </si>
+  <si>
+    <t>Uhr</t>
+  </si>
+  <si>
+    <t>Uhren</t>
+  </si>
+  <si>
+    <t>Unterhose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1979,6 +2277,12 @@
       <sz val="22"/>
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2101,7 +2405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2136,7 +2440,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3853,10 +4161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -6192,7 +6500,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D227" s="22" t="s">
+      <c r="D227" s="23" t="s">
         <v>617</v>
       </c>
       <c r="E227" s="13" t="s">
@@ -6296,6 +6604,12 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B237" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>635</v>
+      </c>
       <c r="E237" s="13" t="s">
         <v>594</v>
       </c>
@@ -6304,41 +6618,404 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C238" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>637</v>
+      </c>
       <c r="E238" s="13" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C239" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>640</v>
+      </c>
       <c r="E239" s="13" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C240" s="7" t="s">
+        <v>641</v>
+      </c>
       <c r="E240" s="13" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="3" t="s">
+        <v>642</v>
+      </c>
       <c r="E241" s="13" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D242" s="11" t="s">
+        <v>644</v>
+      </c>
       <c r="E242" s="13" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B243" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="D243" s="11" t="s">
+        <v>670</v>
+      </c>
       <c r="E243" s="13" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B244" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>672</v>
+      </c>
       <c r="E244" s="13" t="s">
         <v>620</v>
       </c>
     </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B245" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C247" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="D247" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C249" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D249" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B251" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C253" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B254" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B256" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="F260" s="25" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B261" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C263" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C264" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C268" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C269" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B271" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B272" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C274" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C275" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="26"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>